--- a/biology/Botanique/Perebea_guianensis/Perebea_guianensis.xlsx
+++ b/biology/Botanique/Perebea_guianensis/Perebea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perebea guianensis est une espèce de plantes à fleurs de la famille des Moraceae. Il s'agit de l'espèce type du genre Perebea Aubl..
-C'est un arbre néotropical. Il est connu en Guyane sous les noms de Abérémou (Créole)[4], Kalumã Kalate, Yuwa'pisi, Yi'wapiso, Yuwa pɨso (Wayãpi), Amap purubumna, Amap-purubumnak, Tuukwanru Kamwi, Tukwanru kamwi (Palikur), Cauchorana (Portugais du Brésil)[5],[6],[7]. On le nomme Furufifi au (Guyana)[8].
+C'est un arbre néotropical. Il est connu en Guyane sous les noms de Abérémou (Créole), Kalumã Kalate, Yuwa'pisi, Yi'wapiso, Yuwa pɨso (Wayãpi), Amap purubumna, Amap-purubumnak, Tuukwanru Kamwi, Tukwanru kamwi (Palikur), Cauchorana (Portugais du Brésil). On le nomme Furufifi au (Guyana).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perebea guianensis est généralement un petit arbre dioïque du sous-étage atteignant 20 m de haut (P. guianensis subsp. guianensis serait plus petit : 8-14 m de haut[9]). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perebea guianensis est généralement un petit arbre dioïque du sous-étage atteignant 20 m de haut (P. guianensis subsp. guianensis serait plus petit : 8-14 m de haut). 
 Les rameaux feuillés sont épais de 3-10(-15) mm, couverts de poils appressés à séricés, de couleur grisâtre à jaune pâle.
 Le limbe des feuilles coriace à cartacé, mesure (12-)20-50 x (5-)7-24 cm, et est de forme oblongue, étroitement elliptique à lancéolée, avec l'apex acuminé à aigu, la base (obtuse) émarginée, (sub-)cordée (à aiguë), et les marges entières à dentées.
 La face supérieure est couverte de poils appressés épars, et des poils jaunâtres séricés sur la nervure médiane (presque plane), tandis que l'on trouve en dessous des poils pluricellulaires, apressés, pubérulents, capités et oblongoïdes sur les nervures saillantes.
@@ -536,7 +550,7 @@
 Le stigmate, long de 0,8 à 1,3(−2) mm, a la forme d'une langue.
 Les infrutescences discoïdes à hémisphériques, mesurent 2,5 à 4 cm de diamètre, deviennent rouges à maturité. 
 Les bractées involucrales sont ovales ou triangulaires.
-Infranescences de 2-5 cm de diamètre, fructification Perianthe 10-22 mm de hauteur, hinelleux jaunâtre à véluineux[8],[6],[10].
+Infranescences de 2-5 cm de diamètre, fructification Perianthe 10-22 mm de hauteur, hinelleux jaunâtre à véluineux.
 </t>
         </is>
       </c>
@@ -565,15 +579,17 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On rencontre Perebea guianensis du Panama au Brésil, en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On rencontre Perebea guianensis du Panama au Brésil, en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 Perebea guianensis Aubl. comprend 5 sous-espèces :
 Perebea guianensis subsp. acanthogyne (Ducke) C.C. Berg - bassin supérieur de l'Amazone
 Perebea guianensis subsp. castilloides (Pitt.) C.C. Berg - Panama et Colombie
-Perebea guianensis subsp. guianensis - du bassin amazonien (Équateur, Pérou, Bolivie, Brésil, Venezuela : Amazonas[9]) à la Guyane, à l'est de Suriname, et au Guyana (à 12 milles de l'embouchure de la crique Onoro River (ceb))
+Perebea guianensis subsp. guianensis - du bassin amazonien (Équateur, Pérou, Bolivie, Brésil, Venezuela : Amazonas) à la Guyane, à l'est de Suriname, et au Guyana (à 12 milles de l'embouchure de la crique Onoro River (ceb))
 Perebea guianensis subsp. hirsuta C.C. Berg - bassin supérieur de l'Amazone
-Perebea guianensis subsp. pseudopeltata (MildBR.) C.C. Berg - bassin supérieur de l'Amazone[8]</t>
+Perebea guianensis subsp. pseudopeltata (MildBR.) C.C. Berg - bassin supérieur de l'Amazone</t>
         </is>
       </c>
     </row>
@@ -601,11 +617,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perebea guianensis est un arbre moyen des forêts anciennes et des vieilles forêts secondaires[5] de terre ferme (non inondées)[8].
-En Guyane, Perebea guianensis fleurit en avril/août/septembre/octobre, et fructifie en janvier/février/avril/août/septembre/octobre[6]. 
-Au Venezuela, on rencontre P. guianensis subsp. guianensis dans les forêts de terre ferme, autour de 100 à 200 m d'altitude[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perebea guianensis est un arbre moyen des forêts anciennes et des vieilles forêts secondaires de terre ferme (non inondées).
+En Guyane, Perebea guianensis fleurit en avril/août/septembre/octobre, et fructifie en janvier/février/avril/août/septembre/octobre. 
+Au Venezuela, on rencontre P. guianensis subsp. guianensis dans les forêts de terre ferme, autour de 100 à 200 m d'altitude.
 </t>
         </is>
       </c>
@@ -634,15 +652,17 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Palikur emploient le latex de Perebea guianensis en application directe du latex brut sur la peau, pour soigner les blessures occasionnées par les boutoirs des pécaris, ainsi que le sikgep (maladie signifiant « déchiré» et traduite par blesse ou coup en créole, correspondant à une douleur mobile en dessous des côtes, d'origine « magique » ou faisant suite à un effort excessif)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Palikur emploient le latex de Perebea guianensis en application directe du latex brut sur la peau, pour soigner les blessures occasionnées par les boutoirs des pécaris, ainsi que le sikgep (maladie signifiant « déchiré» et traduite par blesse ou coup en créole, correspondant à une douleur mobile en dessous des côtes, d'origine « magique » ou faisant suite à un effort excessif).
 Ils consomment aussi ce latex mélangé à du lait concentré pour soigner les ulcères internes, ou mélangé à du couac comme fortifiant, ou comme antidiarrhéique.
-Ils préfèrent néanmoins pour ces usages le latex d'autres espèces (Brosimum parinarioides et Parahancornia fasciculata)[5]. 
-Ils utilisent par ailleurs le macérat de fragments de rameaux dans le rhum, comme aphrodisiaque pour les hommes[5].
-Le latex tiré de l'écorce des tiges, flexibles et molles aurait des propriétés anthelminthiques[4].
-Les Waimiri-Atroari (en) utilisent le latex de Perebea guianensis pour soigner les plaies[11]
-Les Chácobo consomment les fruits de Perebea guianensis et utilisent son écorce comme une étoffe pour la confection de vêtements traditionnels[12].
+Ils préfèrent néanmoins pour ces usages le latex d'autres espèces (Brosimum parinarioides et Parahancornia fasciculata). 
+Ils utilisent par ailleurs le macérat de fragments de rameaux dans le rhum, comme aphrodisiaque pour les hommes.
+Le latex tiré de l'écorce des tiges, flexibles et molles aurait des propriétés anthelminthiques.
+Les Waimiri-Atroari (en) utilisent le latex de Perebea guianensis pour soigner les plaies
+Les Chácobo consomment les fruits de Perebea guianensis et utilisent son écorce comme une étoffe pour la confection de vêtements traditionnels.
 </t>
         </is>
       </c>
@@ -671,9 +691,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PEREBEA Guianenſis. (Tabula 361.)
 Arbuscula plures emittens caules ſtriatos, flexiles. Folia alterna, ampla, glabra, ſubſeſſilia, ad oras remotè dentata, ovato-oblonga, acuta, puctis tranſlucidis quaſi pertuſa. Stipula ampla, longa, ſemi-amplexicaulis. Flores numeroſi, (30 &amp; ampliùs), in codem involucro, vireſcentes. Fructus maturus, coccineus.
 Folia lacerata, cortex trunci inciſus, lacteum ſuccum ſundunt.
